--- a/pidis/expdata/50002.xlsx
+++ b/pidis/expdata/50002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/fitpack2/database/pidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A6EC5-1CEE-DB4F-975D-4ED78F48A0A6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C630976-5877-BA4B-BE84-A115827E5B98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="26700" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="10">
   <si>
     <t>Q2</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>JAM</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>ppdf</t>
   </si>
 </sst>
 </file>
@@ -113,12 +119,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -459,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -471,7 +480,7 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,14 +493,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-2.080442023550293E-2</v>
       </c>
@@ -505,13 +517,16 @@
         <v>0.05</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-2.1056945812282849E-2</v>
       </c>
@@ -525,13 +540,16 @@
         <v>0.05</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-2.0845316129908819E-2</v>
       </c>
@@ -545,13 +563,16 @@
         <v>0.05</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-2.065582722590013E-2</v>
       </c>
@@ -565,13 +586,16 @@
         <v>0.05</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-2.0497134580917838E-2</v>
       </c>
@@ -585,13 +609,16 @@
         <v>0.05</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-2.036261776069833E-2</v>
       </c>
@@ -605,13 +632,16 @@
         <v>0.05</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-2.024649461593693E-2</v>
       </c>
@@ -625,13 +655,16 @@
         <v>0.05</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-2.0144598022798488E-2</v>
       </c>
@@ -645,13 +678,16 @@
         <v>0.05</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-2.005395583286319E-2</v>
       </c>
@@ -665,13 +701,16 @@
         <v>0.05</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-1.99327461570795E-2</v>
       </c>
@@ -685,13 +724,16 @@
         <v>0.05</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-2.1072044684376762E-2</v>
       </c>
@@ -705,13 +747,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-2.114510180494155E-2</v>
       </c>
@@ -725,13 +770,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-2.0876486573630951E-2</v>
       </c>
@@ -745,13 +793,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-2.065609176887041E-2</v>
       </c>
@@ -765,13 +816,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-2.0477243782884871E-2</v>
       </c>
@@ -785,13 +839,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-2.032824235538009E-2</v>
       </c>
@@ -805,13 +862,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-2.0201061733343309E-2</v>
       </c>
@@ -825,13 +885,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-2.0090367701889909E-2</v>
       </c>
@@ -845,13 +908,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-1.9992512226559001E-2</v>
       </c>
@@ -865,13 +931,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-1.98623647744544E-2</v>
       </c>
@@ -885,13 +954,16 @@
         <v>5.5E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-2.1281395592229711E-2</v>
       </c>
@@ -905,13 +977,16 @@
         <v>0.06</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-2.119505606387169E-2</v>
       </c>
@@ -925,13 +1000,16 @@
         <v>0.06</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-2.087785650465749E-2</v>
       </c>
@@ -945,13 +1023,16 @@
         <v>0.06</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2.0631676480558778E-2</v>
       </c>
@@ -965,13 +1046,16 @@
         <v>0.06</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-2.043628079898225E-2</v>
       </c>
@@ -985,13 +1069,16 @@
         <v>0.06</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-2.027554414530831E-2</v>
       </c>
@@ -1005,13 +1092,16 @@
         <v>0.06</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-2.013950773253281E-2</v>
       </c>
@@ -1025,13 +1115,16 @@
         <v>0.06</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-2.0021840609498451E-2</v>
       </c>
@@ -1045,13 +1138,16 @@
         <v>0.06</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1.9918321792123671E-2</v>
       </c>
@@ -1065,13 +1161,16 @@
         <v>0.06</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-1.9781215177336931E-2</v>
       </c>
@@ -1085,13 +1184,16 @@
         <v>0.06</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>-2.1448699866195738E-2</v>
       </c>
@@ -1105,13 +1207,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>-2.1220301381230031E-2</v>
       </c>
@@ -1125,13 +1230,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>-2.0861555085022031E-2</v>
       </c>
@@ -1145,13 +1253,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>-2.0593825992728451E-2</v>
       </c>
@@ -1165,13 +1276,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>-2.0384842775532069E-2</v>
       </c>
@@ -1185,13 +1299,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>-2.021461302054995E-2</v>
       </c>
@@ -1205,13 +1322,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>-2.0071507445662998E-2</v>
       </c>
@@ -1225,13 +1345,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>-1.994834152564905E-2</v>
       </c>
@@ -1245,13 +1368,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>-1.9840407427540958E-2</v>
       </c>
@@ -1265,13 +1391,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>-1.9697933097811159E-2</v>
       </c>
@@ -1285,13 +1414,16 @@
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>-2.158669574333651E-2</v>
       </c>
@@ -1305,13 +1437,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>-2.123087707729681E-2</v>
       </c>
@@ -1325,13 +1460,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>-2.0836393068292339E-2</v>
       </c>
@@ -1345,13 +1483,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>-2.055057378708736E-2</v>
       </c>
@@ -1365,13 +1506,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>-2.0330401998126579E-2</v>
       </c>
@@ -1385,13 +1529,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-2.0152485659146239E-2</v>
       </c>
@@ -1405,13 +1552,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-2.0003743556453919E-2</v>
       </c>
@@ -1425,13 +1575,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-1.9876256191166831E-2</v>
       </c>
@@ -1445,13 +1598,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-1.9764899924686431E-2</v>
       </c>
@@ -1465,13 +1621,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-1.961832347105108E-2</v>
       </c>
@@ -1485,13 +1644,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-2.1705290583395868E-2</v>
       </c>
@@ -1505,13 +1667,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E52" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-2.1234142755385359E-2</v>
       </c>
@@ -1525,13 +1690,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-2.080864501489809E-2</v>
       </c>
@@ -1545,13 +1713,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-2.0507521566803012E-2</v>
       </c>
@@ -1565,13 +1736,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-2.0278079876160201E-2</v>
       </c>
@@ -1585,13 +1759,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-2.0093913568364451E-2</v>
       </c>
@@ -1605,13 +1782,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-1.994066873986599E-2</v>
       </c>
@@ -1625,13 +1805,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-1.9809787784092758E-2</v>
       </c>
@@ -1645,13 +1828,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-1.96957890790673E-2</v>
       </c>
@@ -1665,13 +1851,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>-1.9546104146941742E-2</v>
       </c>
@@ -1685,13 +1874,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-2.1812072116856891E-2</v>
       </c>
@@ -1705,13 +1897,16 @@
         <v>0.08</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>-2.123535797621456E-2</v>
       </c>
@@ -1725,13 +1920,16 @@
         <v>0.08</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-2.0782628945733041E-2</v>
       </c>
@@ -1745,13 +1943,16 @@
         <v>0.08</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-2.046841318022815E-2</v>
       </c>
@@ -1765,13 +1966,16 @@
         <v>0.08</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-2.023121441366113E-2</v>
       </c>
@@ -1785,13 +1989,16 @@
         <v>0.08</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-2.0041924326295452E-2</v>
       </c>
@@ -1805,13 +2012,16 @@
         <v>0.08</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-1.9885061100759119E-2</v>
       </c>
@@ -1825,13 +2035,16 @@
         <v>0.08</v>
       </c>
       <c r="E68" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-1.97515069988527E-2</v>
       </c>
@@ -1845,13 +2058,16 @@
         <v>0.08</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F69" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-1.9635468820034491E-2</v>
       </c>
@@ -1865,13 +2081,16 @@
         <v>0.08</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-1.948344431384768E-2</v>
       </c>
@@ -1885,13 +2104,16 @@
         <v>0.08</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-2.191271618279254E-2</v>
       </c>
@@ -1905,13 +2127,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-2.123812762502874E-2</v>
       </c>
@@ -1925,13 +2150,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-2.0761146703547409E-2</v>
       </c>
@@ -1945,13 +2173,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-2.0435567791765211E-2</v>
       </c>
@@ -1965,13 +2196,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-2.019178656544314E-2</v>
       </c>
@@ -1985,13 +2219,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>-1.9998241795518141E-2</v>
       </c>
@@ -2005,13 +2242,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>-1.9838438879397211E-2</v>
       </c>
@@ -2025,13 +2265,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E78" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>-1.9702761789049981E-2</v>
       </c>
@@ -2045,13 +2288,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E79" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>-1.958514245125767E-2</v>
       </c>
@@ -2065,13 +2311,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>-1.9431363716833319E-2</v>
       </c>
@@ -2085,13 +2334,16 @@
         <v>8.5000000000000006E-2</v>
       </c>
       <c r="E81" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>-2.2011318812854341E-2</v>
       </c>
@@ -2105,13 +2357,16 @@
         <v>0.09</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>-2.12447511892273E-2</v>
       </c>
@@ -2125,13 +2380,16 @@
         <v>0.09</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>-2.074582530877616E-2</v>
       </c>
@@ -2145,13 +2403,16 @@
         <v>0.09</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>-2.041021339166699E-2</v>
       </c>
@@ -2165,13 +2426,16 @@
         <v>0.09</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>-2.016074694384698E-2</v>
       </c>
@@ -2185,13 +2449,16 @@
         <v>0.09</v>
       </c>
       <c r="E86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>-1.996360695300825E-2</v>
       </c>
@@ -2205,13 +2472,16 @@
         <v>0.09</v>
       </c>
       <c r="E87" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>-1.9801376145305159E-2</v>
       </c>
@@ -2225,13 +2495,16 @@
         <v>0.09</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>-1.9663988514697309E-2</v>
       </c>
@@ -2245,13 +2518,16 @@
         <v>0.09</v>
       </c>
       <c r="E89" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>-1.9545129726449891E-2</v>
       </c>
@@ -2265,13 +2541,16 @@
         <v>0.09</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>-1.9390034344360471E-2</v>
       </c>
@@ -2285,13 +2564,16 @@
         <v>0.09</v>
       </c>
       <c r="E91" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>-2.2110671301746269E-2</v>
       </c>
@@ -2305,13 +2587,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>-2.1256501241837839E-2</v>
       </c>
@@ -2325,13 +2610,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F93" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>-2.073738587284547E-2</v>
       </c>
@@ -2345,13 +2633,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E94" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F94" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>-2.039274767560759E-2</v>
       </c>
@@ -2365,13 +2656,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>-2.0138270107009869E-2</v>
       </c>
@@ -2385,13 +2679,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>-1.9938026649178091E-2</v>
       </c>
@@ -2405,13 +2702,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>-1.9773746814029089E-2</v>
       </c>
@@ -2425,13 +2725,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>-1.963495181657314E-2</v>
       </c>
@@ -2445,13 +2748,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F99" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>-1.9515103051495519E-2</v>
       </c>
@@ -2465,13 +2771,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>-1.935901181258122E-2</v>
       </c>
@@ -2485,13 +2794,16 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>-2.22124911129069E-2</v>
       </c>
@@ -2505,13 +2817,16 @@
         <v>0.1</v>
       </c>
       <c r="E102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>-2.1273848395396311E-2</v>
       </c>
@@ -2525,13 +2840,16 @@
         <v>0.1</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>-2.0735858133655419E-2</v>
       </c>
@@ -2545,13 +2863,16 @@
         <v>0.1</v>
       </c>
       <c r="E104" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F104" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>-2.038294463611821E-2</v>
       </c>
@@ -2565,13 +2886,16 @@
         <v>0.1</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F105" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>-2.0123954877021399E-2</v>
       </c>
@@ -2585,13 +2909,16 @@
         <v>0.1</v>
       </c>
       <c r="E106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F106" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>-1.9920968776864528E-2</v>
       </c>
@@ -2605,13 +2932,16 @@
         <v>0.1</v>
       </c>
       <c r="E107" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F107" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>-1.9754915463411349E-2</v>
       </c>
@@ -2625,13 +2955,16 @@
         <v>0.1</v>
       </c>
       <c r="E108" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F108" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>-1.961493167036794E-2</v>
       </c>
@@ -2645,13 +2978,16 @@
         <v>0.1</v>
       </c>
       <c r="E109" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>-1.9494271230596539E-2</v>
       </c>
@@ -2665,13 +3001,16 @@
         <v>0.1</v>
       </c>
       <c r="E110" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F110" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>-1.933741480435644E-2</v>
       </c>
@@ -2685,9 +3024,12 @@
         <v>0.1</v>
       </c>
       <c r="E111" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F111" t="s">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
         <v>7</v>
       </c>
     </row>
